--- a/FDA_Weekly_Report/4_FDA_BI_Table_Column.xlsx
+++ b/FDA_Weekly_Report/4_FDA_BI_Table_Column.xlsx
@@ -223,13 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,18 +511,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" customWidth="1"/>
     <col min="2" max="2" width="39.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -534,7 +534,7 @@
       <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -551,7 +551,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>D2/E2</f>
         <v>0</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:C29" si="0">D3/E3</f>
         <v>0.10980662983425414</v>
       </c>
@@ -587,7 +587,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>0.10980662983425414</v>
       </c>
@@ -605,7 +605,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>0.18181157313172433</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>6.0664437336435013E-2</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>9.8684210526315791E-2</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>6.8006687990694967E-2</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>0.26432102355335851</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>0.86504070950857803</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>0.16734515847630124</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>0.46310700785111952</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>0.47728264030241352</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>0.9433701657458563</v>
       </c>
@@ -814,14 +814,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>0.13423233498109916</v>
       </c>
@@ -832,14 +832,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>0.8801613841232917</v>
       </c>
@@ -850,14 +850,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>0.97971794126199474</v>
       </c>
@@ -868,14 +868,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>0.33792526897353881</v>
       </c>
@@ -886,14 +886,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>0.25661529514393722</v>
       </c>
@@ -904,14 +904,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>0.19969467868566443</v>
       </c>
@@ -922,14 +922,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>0.54965106135504505</v>
       </c>
@@ -940,14 +940,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>0.17454201802849664</v>
       </c>
@@ -958,14 +958,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>7.0623727827856933E-2</v>
       </c>
@@ -976,14 +976,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>0.86427740622273919</v>
       </c>
@@ -994,14 +994,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>1.8900843268391974E-3</v>
       </c>
@@ -1012,14 +1012,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>0.42483280023262576</v>
       </c>
@@ -1030,14 +1030,14 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>0.53493021227100901</v>
       </c>
@@ -1048,243 +1048,248 @@
         <v>27512</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
+        <f>D30/E30</f>
+        <v>0.66465232126087137</v>
+      </c>
+      <c r="D30">
+        <v>16278</v>
+      </c>
+      <c r="E30">
+        <v>24491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="5">
-        <f>D31/E31</f>
-        <v>0.66465232126087137</v>
+      <c r="C31" s="4">
+        <f t="shared" ref="C31:C46" si="1">D31/E31</f>
+        <v>0.66473398391245764</v>
       </c>
       <c r="D31">
-        <v>16278</v>
+        <v>16280</v>
       </c>
       <c r="E31">
         <v>24491</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="5">
-        <f t="shared" ref="C32:C47" si="1">D32/E32</f>
-        <v>0.66473398391245764</v>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>0.70364623739332821</v>
       </c>
       <c r="D32">
-        <v>16280</v>
+        <v>17233</v>
       </c>
       <c r="E32">
         <v>24491</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70364623739332821</v>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>0.71683475562451515</v>
       </c>
       <c r="D33">
-        <v>17233</v>
+        <v>17556</v>
       </c>
       <c r="E33">
         <v>24491</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="5">
-        <f t="shared" si="1"/>
-        <v>0.71683475562451515</v>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.80384631088971459</v>
       </c>
       <c r="D34">
-        <v>17556</v>
+        <v>19687</v>
       </c>
       <c r="E34">
         <v>24491</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="5">
-        <f t="shared" si="1"/>
-        <v>0.80384631088971459</v>
+      <c r="C35" s="4">
+        <f t="shared" si="1"/>
+        <v>0.85582458862439259</v>
       </c>
       <c r="D35">
-        <v>19687</v>
+        <v>20960</v>
       </c>
       <c r="E35">
         <v>24491</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="5">
-        <f t="shared" si="1"/>
-        <v>0.85582458862439259</v>
+      <c r="C36" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90069821567106279</v>
       </c>
       <c r="D36">
-        <v>20960</v>
+        <v>22059</v>
       </c>
       <c r="E36">
         <v>24491</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="5">
-        <f t="shared" si="1"/>
-        <v>0.90069821567106279</v>
+      <c r="C37" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90576130006941324</v>
       </c>
       <c r="D37">
-        <v>22059</v>
+        <v>22183</v>
       </c>
       <c r="E37">
         <v>24491</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="5">
-        <f t="shared" si="1"/>
-        <v>0.90576130006941324</v>
+      <c r="C38" s="4">
+        <f t="shared" si="1"/>
+        <v>0.82511943162794499</v>
       </c>
       <c r="D38">
-        <v>22183</v>
+        <v>20208</v>
       </c>
       <c r="E38">
         <v>24491</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
+        <f t="shared" si="1"/>
+        <v>0.92911681842309424</v>
+      </c>
+      <c r="D39">
+        <v>22755</v>
+      </c>
+      <c r="E39">
+        <v>24491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4">
         <f t="shared" si="1"/>
         <v>0.82511943162794499</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>20208</v>
       </c>
-      <c r="E39">
-        <v>24491</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="5">
-        <f t="shared" si="1"/>
-        <v>0.92911681842309424</v>
-      </c>
-      <c r="D40">
-        <v>22755</v>
-      </c>
       <c r="E40">
         <v>24491</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
+        <f t="shared" si="1"/>
+        <v>0.92478869788902041</v>
+      </c>
+      <c r="D41">
+        <v>22649</v>
+      </c>
+      <c r="E41">
+        <v>24491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4">
         <f t="shared" si="1"/>
         <v>0.82511943162794499</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>20208</v>
       </c>
-      <c r="E41">
-        <v>24491</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="5">
-        <f t="shared" si="1"/>
-        <v>0.92478869788902041</v>
-      </c>
-      <c r="D42">
-        <v>22649</v>
-      </c>
       <c r="E42">
         <v>24491</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <f t="shared" si="1"/>
         <v>0.82511943162794499</v>
       </c>
@@ -1295,14 +1300,14 @@
         <v>24491</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <f t="shared" si="1"/>
         <v>0.82511943162794499</v>
       </c>
@@ -1313,63 +1318,58 @@
         <v>24491</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="5">
-        <f t="shared" si="1"/>
-        <v>0.82511943162794499</v>
+      <c r="C45" s="4">
+        <f t="shared" si="1"/>
+        <v>0.82516026295373812</v>
       </c>
       <c r="D45">
-        <v>20208</v>
+        <v>20209</v>
       </c>
       <c r="E45">
         <v>24491</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="5">
-        <f t="shared" si="1"/>
-        <v>0.82516026295373812</v>
+      <c r="C46" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90833367359438166</v>
       </c>
       <c r="D46">
-        <v>20209</v>
+        <v>22246</v>
       </c>
       <c r="E46">
         <v>24491</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="5">
-        <f t="shared" si="1"/>
-        <v>0.90833367359438166</v>
-      </c>
-      <c r="D47">
-        <v>22246</v>
-      </c>
-      <c r="E47">
-        <v>24491</v>
-      </c>
+    <row r="48" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
